--- a/config_6.01/task_server.xlsx
+++ b/config_6.01/task_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="490">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1406,6 +1406,9 @@
     <t>continue_login</t>
   </si>
   <si>
+    <t>所有消耗</t>
+  </si>
+  <si>
     <t>zajindan_spend</t>
   </si>
   <si>
@@ -1439,6 +1442,9 @@
     <t>buyu_spend_by_use_fish_prop</t>
   </si>
   <si>
+    <t>guess_apple_spend</t>
+  </si>
+  <si>
     <t>xiaoxiaole_sanguo_spend</t>
   </si>
   <si>
@@ -1448,10 +1454,10 @@
     <t>buyu_3d_spend_num</t>
   </si>
   <si>
-    <t>xy_xxl_xc_target_item</t>
+    <t>xiaoxiaole_xiyou_game_num</t>
   </si>
   <si>
-    <t>sh_xxl_xc_target_item</t>
+    <t>xiaoxiaole_shuihu_game_num</t>
   </si>
   <si>
     <t>agent_charge_any</t>
@@ -1469,7 +1475,7 @@
     <t>player_online_time_long</t>
   </si>
   <si>
-    <t>xxl_xc_target_item</t>
+    <t>xiaoxiaole_game_num</t>
   </si>
   <si>
     <t>id|行号</t>
@@ -1896,10 +1902,10 @@
     <t>水果消消乐累积赢金</t>
   </si>
   <si>
-    <t>xiaoxiaole_game_num</t>
+    <t>水果消消乐游戏次数</t>
   </si>
   <si>
-    <t>水果消消乐游戏次数</t>
+    <t>xxl_xc_target_item</t>
   </si>
   <si>
     <t>水果消消乐消除指定的元素多少个</t>
@@ -1950,10 +1956,10 @@
     <t>水浒消消乐累积赢金</t>
   </si>
   <si>
-    <t>xiaoxiaole_shuihu_game_num</t>
+    <t>水浒消消乐游戏次数</t>
   </si>
   <si>
-    <t>水浒消消乐游戏次数</t>
+    <t>sh_xxl_xc_target_item</t>
   </si>
   <si>
     <t>水浒水果消消乐消除指定的元素多少个</t>
@@ -2048,10 +2054,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2087,54 +2093,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2147,15 +2121,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2163,31 +2130,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2202,7 +2145,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2217,9 +2191,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2310,13 +2316,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2328,31 +2334,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2370,13 +2364,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2388,7 +2376,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2400,13 +2388,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2418,7 +2418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2430,7 +2430,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2443,18 +2461,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2497,19 +2503,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2532,23 +2527,28 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2583,11 +2583,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2597,10 +2603,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2609,138 +2615,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2850,6 +2856,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2914,7 +2924,6 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3273,10 +3282,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U118"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q112" sqref="Q112"/>
+      <selection pane="bottomLeft" activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3389,8 +3398,8 @@
       <c r="O2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="69"/>
     </row>
     <row r="3" ht="43.5" customHeight="1" spans="1:18">
       <c r="A3" s="14">
@@ -3432,8 +3441,8 @@
       <c r="O3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="69"/>
     </row>
     <row r="4" ht="43.5" customHeight="1" spans="1:18">
       <c r="A4" s="14">
@@ -3475,8 +3484,8 @@
       <c r="O4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="69"/>
     </row>
     <row r="5" ht="43.5" customHeight="1" spans="1:18">
       <c r="A5" s="14">
@@ -3485,7 +3494,7 @@
       <c r="B5" s="14">
         <v>0</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="48" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -3515,11 +3524,11 @@
       <c r="N5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="46" t="s">
+      <c r="O5" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="69"/>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:15">
       <c r="A6" s="14">
@@ -3599,7 +3608,7 @@
       <c r="N7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="46" t="s">
+      <c r="O7" s="48" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3640,7 +3649,7 @@
       <c r="N8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="46" t="s">
+      <c r="O8" s="48" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3651,7 +3660,7 @@
       <c r="B9" s="14">
         <v>-1</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="48" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -3829,7 +3838,7 @@
       <c r="B14" s="14">
         <v>-1</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="48" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -3864,7 +3873,7 @@
       <c r="B15" s="14">
         <v>-1</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="67" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -3899,7 +3908,7 @@
       <c r="B16" s="14">
         <v>-1</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="48" t="s">
         <v>51</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -4004,7 +4013,7 @@
       <c r="B19" s="14">
         <v>-1</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="48" t="s">
         <v>54</v>
       </c>
       <c r="D19" s="14" t="s">
@@ -4144,7 +4153,7 @@
       <c r="B23" s="14">
         <v>-1</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="48" t="s">
         <v>58</v>
       </c>
       <c r="D23" s="14" t="s">
@@ -4284,7 +4293,7 @@
       <c r="B27" s="14">
         <v>-1</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="48" t="s">
         <v>62</v>
       </c>
       <c r="D27" s="14" t="s">
@@ -4319,7 +4328,7 @@
       <c r="B28" s="14">
         <v>-1</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="48" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="14" t="s">
@@ -4354,7 +4363,7 @@
       <c r="B29" s="14">
         <v>-1</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="48" t="s">
         <v>64</v>
       </c>
       <c r="D29" s="14" t="s">
@@ -5337,7 +5346,7 @@
       <c r="C57" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D57" s="46" t="s">
+      <c r="D57" s="48" t="s">
         <v>100</v>
       </c>
       <c r="E57" s="14" t="s">
@@ -5474,7 +5483,7 @@
       <c r="B61" s="26">
         <v>-1</v>
       </c>
-      <c r="C61" s="46" t="s">
+      <c r="C61" s="48" t="s">
         <v>108</v>
       </c>
       <c r="D61" s="14" t="s">
@@ -5655,7 +5664,7 @@
       <c r="D66" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E66" s="46" t="s">
+      <c r="E66" s="48" t="s">
         <v>39</v>
       </c>
       <c r="F66" s="14">
@@ -5687,7 +5696,7 @@
       <c r="C67" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D67" s="46" t="s">
+      <c r="D67" s="48" t="s">
         <v>122</v>
       </c>
       <c r="E67" s="14" t="s">
@@ -5725,7 +5734,7 @@
       <c r="D68" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="E68" s="69" t="s">
+      <c r="E68" s="70" t="s">
         <v>124</v>
       </c>
       <c r="F68" s="28">
@@ -5999,10 +6008,10 @@
       <c r="B76" s="28">
         <v>0</v>
       </c>
-      <c r="C76" s="69" t="s">
+      <c r="C76" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="D76" s="69" t="s">
+      <c r="D76" s="70" t="s">
         <v>124</v>
       </c>
       <c r="E76" s="28" t="s">
@@ -6037,7 +6046,7 @@
       <c r="C77" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D77" s="69" t="s">
+      <c r="D77" s="70" t="s">
         <v>124</v>
       </c>
       <c r="E77" s="28" t="s">
@@ -6062,108 +6071,108 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="78" s="55" customFormat="1" spans="1:11">
-      <c r="A78" s="55">
+    <row r="78" s="57" customFormat="1" spans="1:11">
+      <c r="A78" s="57">
         <v>78</v>
       </c>
-      <c r="B78" s="55">
-        <v>1</v>
-      </c>
-      <c r="C78" s="70" t="s">
+      <c r="B78" s="57">
+        <v>1</v>
+      </c>
+      <c r="C78" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="D78" s="70" t="s">
+      <c r="D78" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="E78" s="70" t="s">
+      <c r="E78" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="F78" s="55">
+      <c r="F78" s="57">
         <v>78</v>
       </c>
-      <c r="G78" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="55">
-        <v>1</v>
-      </c>
-      <c r="I78" s="55">
+      <c r="G78" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="57">
+        <v>1</v>
+      </c>
+      <c r="I78" s="57">
         <v>946656000</v>
       </c>
-      <c r="J78" s="55">
+      <c r="J78" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K78" s="55">
+      <c r="K78" s="57">
         <v>-1</v>
       </c>
     </row>
-    <row r="79" s="55" customFormat="1" spans="1:11">
-      <c r="A79" s="55">
+    <row r="79" s="57" customFormat="1" spans="1:11">
+      <c r="A79" s="57">
         <v>79</v>
       </c>
-      <c r="B79" s="55">
-        <v>1</v>
-      </c>
-      <c r="C79" s="70" t="s">
+      <c r="B79" s="57">
+        <v>1</v>
+      </c>
+      <c r="C79" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="D79" s="70" t="s">
+      <c r="D79" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="E79" s="70" t="s">
+      <c r="E79" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="F79" s="55">
+      <c r="F79" s="57">
         <v>79</v>
       </c>
-      <c r="G79" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="55">
-        <v>1</v>
-      </c>
-      <c r="I79" s="55">
+      <c r="G79" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="57">
+        <v>1</v>
+      </c>
+      <c r="I79" s="57">
         <v>946656000</v>
       </c>
-      <c r="J79" s="55">
+      <c r="J79" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K79" s="55">
+      <c r="K79" s="57">
         <v>-1</v>
       </c>
     </row>
-    <row r="80" s="55" customFormat="1" spans="1:11">
-      <c r="A80" s="55">
+    <row r="80" s="57" customFormat="1" spans="1:11">
+      <c r="A80" s="57">
         <v>80</v>
       </c>
-      <c r="B80" s="55">
-        <v>1</v>
-      </c>
-      <c r="C80" s="70" t="s">
+      <c r="B80" s="57">
+        <v>1</v>
+      </c>
+      <c r="C80" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="D80" s="70" t="s">
+      <c r="D80" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="E80" s="70" t="s">
+      <c r="E80" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="F80" s="55">
+      <c r="F80" s="57">
         <v>80</v>
       </c>
-      <c r="G80" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="55">
-        <v>1</v>
-      </c>
-      <c r="I80" s="55">
+      <c r="G80" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="57">
+        <v>1</v>
+      </c>
+      <c r="I80" s="57">
         <v>946656000</v>
       </c>
-      <c r="J80" s="55">
+      <c r="J80" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K80" s="55">
+      <c r="K80" s="57">
         <v>-1</v>
       </c>
     </row>
@@ -6209,13 +6218,13 @@
       <c r="B82" s="29">
         <v>0</v>
       </c>
-      <c r="C82" s="71" t="s">
+      <c r="C82" s="72" t="s">
         <v>146</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="E82" s="71" t="s">
+      <c r="E82" s="72" t="s">
         <v>124</v>
       </c>
       <c r="F82" s="29">
@@ -6246,10 +6255,10 @@
       <c r="B83" s="29">
         <v>0</v>
       </c>
-      <c r="C83" s="71" t="s">
+      <c r="C83" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="D83" s="71" t="s">
+      <c r="D83" s="72" t="s">
         <v>124</v>
       </c>
       <c r="E83" s="29" t="s">
@@ -6283,10 +6292,10 @@
       <c r="B84" s="29">
         <v>0</v>
       </c>
-      <c r="C84" s="71" t="s">
+      <c r="C84" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="D84" s="71" t="s">
+      <c r="D84" s="72" t="s">
         <v>124</v>
       </c>
       <c r="E84" s="29" t="s">
@@ -6358,7 +6367,7 @@
       <c r="C86" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D86" s="46" t="s">
+      <c r="D86" s="48" t="s">
         <v>150</v>
       </c>
       <c r="E86" s="14" t="s">
@@ -6393,7 +6402,7 @@
       <c r="C87" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D87" s="46" t="s">
+      <c r="D87" s="48" t="s">
         <v>151</v>
       </c>
       <c r="E87" s="14" t="s">
@@ -6428,7 +6437,7 @@
       <c r="C88" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D88" s="46" t="s">
+      <c r="D88" s="48" t="s">
         <v>152</v>
       </c>
       <c r="E88" s="14" t="s">
@@ -6460,10 +6469,10 @@
       <c r="B89" s="14">
         <v>1</v>
       </c>
-      <c r="C89" s="46" t="s">
+      <c r="C89" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="D89" s="46" t="s">
+      <c r="D89" s="48" t="s">
         <v>154</v>
       </c>
       <c r="E89" s="14" t="s">
@@ -6488,108 +6497,108 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" s="55" customFormat="1" spans="1:11">
-      <c r="A90" s="55">
+    <row r="90" s="57" customFormat="1" spans="1:11">
+      <c r="A90" s="57">
         <v>90</v>
       </c>
-      <c r="B90" s="55">
-        <v>1</v>
-      </c>
-      <c r="C90" s="70" t="s">
+      <c r="B90" s="57">
+        <v>1</v>
+      </c>
+      <c r="C90" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="D90" s="70" t="s">
+      <c r="D90" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="E90" s="70" t="s">
+      <c r="E90" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="F90" s="55">
+      <c r="F90" s="57">
         <v>90</v>
       </c>
-      <c r="G90" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" s="55">
-        <v>1</v>
-      </c>
-      <c r="I90" s="55">
+      <c r="G90" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="57">
+        <v>1</v>
+      </c>
+      <c r="I90" s="57">
         <v>946656000</v>
       </c>
-      <c r="J90" s="55">
+      <c r="J90" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K90" s="55">
+      <c r="K90" s="57">
         <v>-1</v>
       </c>
     </row>
-    <row r="91" s="55" customFormat="1" spans="1:11">
-      <c r="A91" s="55">
+    <row r="91" s="57" customFormat="1" spans="1:11">
+      <c r="A91" s="57">
         <v>91</v>
       </c>
-      <c r="B91" s="55">
-        <v>1</v>
-      </c>
-      <c r="C91" s="70" t="s">
+      <c r="B91" s="57">
+        <v>1</v>
+      </c>
+      <c r="C91" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="D91" s="70" t="s">
+      <c r="D91" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="E91" s="70" t="s">
+      <c r="E91" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="F91" s="55">
+      <c r="F91" s="57">
         <v>91</v>
       </c>
-      <c r="G91" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" s="55">
-        <v>1</v>
-      </c>
-      <c r="I91" s="55">
+      <c r="G91" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" s="57">
+        <v>1</v>
+      </c>
+      <c r="I91" s="57">
         <v>946656000</v>
       </c>
-      <c r="J91" s="55">
+      <c r="J91" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K91" s="55">
+      <c r="K91" s="57">
         <v>-1</v>
       </c>
     </row>
-    <row r="92" s="55" customFormat="1" spans="1:11">
-      <c r="A92" s="55">
+    <row r="92" s="57" customFormat="1" spans="1:11">
+      <c r="A92" s="57">
         <v>92</v>
       </c>
-      <c r="B92" s="55">
-        <v>1</v>
-      </c>
-      <c r="C92" s="70" t="s">
+      <c r="B92" s="57">
+        <v>1</v>
+      </c>
+      <c r="C92" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="D92" s="70" t="s">
+      <c r="D92" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="E92" s="70" t="s">
+      <c r="E92" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="F92" s="55">
+      <c r="F92" s="57">
         <v>92</v>
       </c>
-      <c r="G92" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" s="55">
-        <v>1</v>
-      </c>
-      <c r="I92" s="55">
+      <c r="G92" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="57">
+        <v>1</v>
+      </c>
+      <c r="I92" s="57">
         <v>946656000</v>
       </c>
-      <c r="J92" s="55">
+      <c r="J92" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K92" s="55">
+      <c r="K92" s="57">
         <v>-1</v>
       </c>
     </row>
@@ -6600,13 +6609,13 @@
       <c r="B93" s="14">
         <v>1</v>
       </c>
-      <c r="C93" s="46" t="s">
+      <c r="C93" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="D93" s="46" t="s">
+      <c r="D93" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E93" s="46" t="s">
+      <c r="E93" s="48" t="s">
         <v>162</v>
       </c>
       <c r="F93" s="14">
@@ -6621,13 +6630,13 @@
       <c r="I93" s="14">
         <v>1603641600</v>
       </c>
-      <c r="J93" s="55">
+      <c r="J93" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K93" s="55">
+      <c r="K93" s="57">
         <v>-1</v>
       </c>
-      <c r="L93" s="73">
+      <c r="L93" s="74">
         <v>1</v>
       </c>
       <c r="M93" s="28" t="s">
@@ -6641,19 +6650,19 @@
       <c r="B94" s="14">
         <v>0</v>
       </c>
-      <c r="C94" s="46" t="s">
+      <c r="C94" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="D94" s="46" t="s">
+      <c r="D94" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E94" s="46" t="s">
+      <c r="E94" s="48" t="s">
         <v>39</v>
       </c>
       <c r="F94" s="14">
         <v>94</v>
       </c>
-      <c r="G94" s="46" t="b">
+      <c r="G94" s="48" t="b">
         <v>0</v>
       </c>
       <c r="H94" s="14">
@@ -6662,14 +6671,14 @@
       <c r="I94" s="14">
         <v>1603641600</v>
       </c>
-      <c r="J94" s="55">
+      <c r="J94" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K94" s="55">
+      <c r="K94" s="57">
         <v>-1</v>
       </c>
-      <c r="L94" s="55"/>
-      <c r="M94" s="55"/>
+      <c r="L94" s="57"/>
+      <c r="M94" s="57"/>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="14">
@@ -6678,19 +6687,19 @@
       <c r="B95" s="14">
         <v>1</v>
       </c>
-      <c r="C95" s="46" t="s">
+      <c r="C95" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="D95" s="46" t="s">
+      <c r="D95" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="E95" s="46" t="s">
+      <c r="E95" s="48" t="s">
         <v>39</v>
       </c>
       <c r="F95" s="14">
         <v>95</v>
       </c>
-      <c r="G95" s="46" t="b">
+      <c r="G95" s="48" t="b">
         <v>0</v>
       </c>
       <c r="H95" s="14">
@@ -6709,44 +6718,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" s="59" customFormat="1" spans="1:13">
-      <c r="A96" s="59">
+    <row r="96" s="61" customFormat="1" spans="1:13">
+      <c r="A96" s="61">
         <v>96</v>
       </c>
-      <c r="B96" s="59">
-        <v>1</v>
-      </c>
-      <c r="C96" s="72" t="s">
+      <c r="B96" s="61">
+        <v>1</v>
+      </c>
+      <c r="C96" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="D96" s="72" t="s">
+      <c r="D96" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="E96" s="72" t="s">
+      <c r="E96" s="73" t="s">
         <v>168</v>
       </c>
-      <c r="F96" s="59">
+      <c r="F96" s="61">
         <v>96</v>
       </c>
-      <c r="G96" s="59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" s="59">
+      <c r="G96" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="61">
         <v>7</v>
       </c>
-      <c r="I96" s="59">
+      <c r="I96" s="61">
         <v>1615132800</v>
       </c>
-      <c r="J96" s="59">
+      <c r="J96" s="61">
         <v>32503651200</v>
       </c>
-      <c r="K96" s="59">
+      <c r="K96" s="61">
         <v>-1</v>
       </c>
-      <c r="L96" s="59">
-        <v>1</v>
-      </c>
-      <c r="M96" s="72" t="s">
+      <c r="L96" s="61">
+        <v>1</v>
+      </c>
+      <c r="M96" s="73" t="s">
         <v>169</v>
       </c>
     </row>
@@ -6757,19 +6766,19 @@
       <c r="B97" s="14">
         <v>1</v>
       </c>
-      <c r="C97" s="46" t="s">
+      <c r="C97" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="D97" s="46" t="s">
+      <c r="D97" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="E97" s="46" t="s">
+      <c r="E97" s="48" t="s">
         <v>39</v>
       </c>
       <c r="F97" s="14">
         <v>97</v>
       </c>
-      <c r="G97" s="59" t="b">
+      <c r="G97" s="61" t="b">
         <v>1</v>
       </c>
       <c r="H97" s="14">
@@ -6795,19 +6804,19 @@
       <c r="B98" s="14">
         <v>1</v>
       </c>
-      <c r="C98" s="46" t="s">
+      <c r="C98" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="D98" s="46" t="s">
+      <c r="D98" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="E98" s="46" t="s">
+      <c r="E98" s="48" t="s">
         <v>39</v>
       </c>
       <c r="F98" s="14">
         <v>98</v>
       </c>
-      <c r="G98" s="59" t="b">
+      <c r="G98" s="61" t="b">
         <v>1</v>
       </c>
       <c r="H98" s="14">
@@ -6833,13 +6842,13 @@
       <c r="B99" s="14">
         <v>1</v>
       </c>
-      <c r="C99" s="46" t="s">
+      <c r="C99" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="D99" s="46" t="s">
+      <c r="D99" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E99" s="46" t="s">
+      <c r="E99" s="48" t="s">
         <v>39</v>
       </c>
       <c r="F99" s="14">
@@ -6871,13 +6880,13 @@
       <c r="B100" s="14">
         <v>1</v>
       </c>
-      <c r="C100" s="46" t="s">
+      <c r="C100" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="D100" s="46" t="s">
+      <c r="D100" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="46" t="s">
+      <c r="E100" s="48" t="s">
         <v>39</v>
       </c>
       <c r="F100" s="14">
@@ -7601,10 +7610,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L104" sqref="L104"/>
+      <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7613,7 +7622,7 @@
     <col min="2" max="5" width="32.75" style="4" customWidth="1"/>
     <col min="6" max="6" width="59.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="28.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="37.5" style="44" customWidth="1"/>
+    <col min="8" max="8" width="37.5" style="46" customWidth="1"/>
     <col min="9" max="9" width="26" style="4" customWidth="1"/>
     <col min="10" max="11" width="31.375" customWidth="1"/>
   </cols>
@@ -7640,7 +7649,7 @@
       <c r="G1" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="47" t="s">
         <v>203</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -7649,7 +7658,7 @@
       <c r="J1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="K1" s="50"/>
+      <c r="K1" s="52"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="14">
@@ -7667,11 +7676,11 @@
       <c r="E2" s="14">
         <v>1</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="F2" s="75" t="s">
         <v>207</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="75" t="s">
+      <c r="G2" s="48"/>
+      <c r="H2" s="76" t="s">
         <v>208</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -7694,11 +7703,11 @@
       <c r="E3" s="14">
         <v>2</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G3" s="14"/>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="76" t="s">
         <v>210</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -7721,11 +7730,11 @@
       <c r="E4" s="14">
         <v>3</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G4" s="14"/>
-      <c r="H4" s="75" t="s">
+      <c r="H4" s="76" t="s">
         <v>211</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -7748,11 +7757,11 @@
       <c r="E5" s="14">
         <v>4</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="75" t="s">
         <v>212</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="75" t="s">
+      <c r="G5" s="48"/>
+      <c r="H5" s="76" t="s">
         <v>213</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -7779,13 +7788,13 @@
         <v>10</v>
       </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="48">
+      <c r="H6" s="50">
         <v>5</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="J6" s="51"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4">
@@ -7806,7 +7815,7 @@
       <c r="F7" s="4">
         <v>10</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="46">
         <v>6</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -7832,7 +7841,7 @@
       <c r="F8" s="4">
         <v>8</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="46">
         <v>28</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -7858,7 +7867,7 @@
       <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="46">
         <v>7</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -7885,7 +7894,7 @@
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="46">
         <v>8</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -7911,7 +7920,7 @@
       <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="46">
         <v>9</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -7937,7 +7946,7 @@
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="46">
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -7963,7 +7972,7 @@
       <c r="F13" s="4">
         <v>8</v>
       </c>
-      <c r="H13" s="44">
+      <c r="H13" s="46">
         <v>11</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -7989,7 +7998,7 @@
       <c r="F14" s="4">
         <v>5</v>
       </c>
-      <c r="H14" s="44">
+      <c r="H14" s="46">
         <v>12</v>
       </c>
       <c r="I14" s="4" t="s">
@@ -8015,7 +8024,7 @@
       <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="H15" s="44">
+      <c r="H15" s="46">
         <v>13</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -8041,7 +8050,7 @@
       <c r="F16" s="4">
         <v>1000</v>
       </c>
-      <c r="H16" s="44">
+      <c r="H16" s="46">
         <v>14</v>
       </c>
       <c r="I16" s="4" t="s">
@@ -8067,7 +8076,7 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="46">
         <v>15</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -8093,7 +8102,7 @@
       <c r="F18" s="4">
         <v>1</v>
       </c>
-      <c r="H18" s="44">
+      <c r="H18" s="46">
         <v>16</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -8119,7 +8128,7 @@
       <c r="F19" s="4">
         <v>5</v>
       </c>
-      <c r="H19" s="44">
+      <c r="H19" s="46">
         <v>17</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -8145,7 +8154,7 @@
       <c r="F20" s="4">
         <v>1</v>
       </c>
-      <c r="H20" s="44">
+      <c r="H20" s="46">
         <v>18</v>
       </c>
       <c r="I20" s="4" t="s">
@@ -8171,7 +8180,7 @@
       <c r="F21" s="4">
         <v>1</v>
       </c>
-      <c r="H21" s="44">
+      <c r="H21" s="46">
         <v>19</v>
       </c>
       <c r="I21" s="4" t="s">
@@ -8197,7 +8206,7 @@
       <c r="F22" s="4">
         <v>5</v>
       </c>
-      <c r="H22" s="44">
+      <c r="H22" s="46">
         <v>20</v>
       </c>
       <c r="I22" s="4" t="s">
@@ -8223,7 +8232,7 @@
       <c r="F23" s="4">
         <v>3</v>
       </c>
-      <c r="H23" s="44">
+      <c r="H23" s="46">
         <v>21</v>
       </c>
       <c r="I23" s="4" t="s">
@@ -8249,7 +8258,7 @@
       <c r="F24" s="4">
         <v>5</v>
       </c>
-      <c r="H24" s="44">
+      <c r="H24" s="46">
         <v>22</v>
       </c>
       <c r="I24" s="4" t="s">
@@ -8275,7 +8284,7 @@
       <c r="F25" s="4">
         <v>5</v>
       </c>
-      <c r="H25" s="44">
+      <c r="H25" s="46">
         <v>23</v>
       </c>
       <c r="I25" s="4" t="s">
@@ -8301,7 +8310,7 @@
       <c r="F26" s="4">
         <v>1</v>
       </c>
-      <c r="H26" s="44">
+      <c r="H26" s="46">
         <v>24</v>
       </c>
       <c r="I26" s="4" t="s">
@@ -8327,7 +8336,7 @@
       <c r="F27" s="4">
         <v>5</v>
       </c>
-      <c r="H27" s="44">
+      <c r="H27" s="46">
         <v>25</v>
       </c>
       <c r="I27" s="4" t="s">
@@ -8353,7 +8362,7 @@
       <c r="F28" s="4">
         <v>5</v>
       </c>
-      <c r="H28" s="44">
+      <c r="H28" s="46">
         <v>26</v>
       </c>
       <c r="I28" s="4" t="s">
@@ -8379,7 +8388,7 @@
       <c r="F29" s="4">
         <v>5</v>
       </c>
-      <c r="H29" s="44">
+      <c r="H29" s="46">
         <v>27</v>
       </c>
       <c r="I29" s="4" t="s">
@@ -8405,7 +8414,7 @@
       <c r="F30" s="4">
         <v>10</v>
       </c>
-      <c r="H30" s="44">
+      <c r="H30" s="46">
         <v>29</v>
       </c>
       <c r="I30" s="4" t="s">
@@ -8431,7 +8440,7 @@
       <c r="F31" s="4">
         <v>1</v>
       </c>
-      <c r="H31" s="44">
+      <c r="H31" s="46">
         <v>30</v>
       </c>
       <c r="I31" s="4" t="s">
@@ -8457,7 +8466,7 @@
       <c r="F32" s="4">
         <v>1</v>
       </c>
-      <c r="H32" s="44">
+      <c r="H32" s="46">
         <v>31</v>
       </c>
       <c r="I32" s="4" t="s">
@@ -8483,7 +8492,7 @@
       <c r="F33" s="4">
         <v>1</v>
       </c>
-      <c r="H33" s="44">
+      <c r="H33" s="46">
         <v>32</v>
       </c>
       <c r="I33" s="4" t="s">
@@ -8509,7 +8518,7 @@
       <c r="F34" s="4">
         <v>5</v>
       </c>
-      <c r="H34" s="44">
+      <c r="H34" s="46">
         <v>33</v>
       </c>
       <c r="I34" s="4" t="s">
@@ -8535,7 +8544,7 @@
       <c r="F35" s="4">
         <v>1</v>
       </c>
-      <c r="H35" s="44">
+      <c r="H35" s="46">
         <v>34</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -8561,7 +8570,7 @@
       <c r="F36" s="4">
         <v>5</v>
       </c>
-      <c r="H36" s="44">
+      <c r="H36" s="46">
         <v>35</v>
       </c>
       <c r="I36" s="4" t="s">
@@ -8587,7 +8596,7 @@
       <c r="F37" s="4">
         <v>20000</v>
       </c>
-      <c r="H37" s="44">
+      <c r="H37" s="46">
         <v>36</v>
       </c>
       <c r="I37" s="4" t="s">
@@ -8613,7 +8622,7 @@
       <c r="F38" s="4">
         <v>1</v>
       </c>
-      <c r="H38" s="44">
+      <c r="H38" s="46">
         <v>37</v>
       </c>
       <c r="I38" s="4" t="s">
@@ -8639,7 +8648,7 @@
       <c r="F39" s="4">
         <v>3</v>
       </c>
-      <c r="H39" s="44">
+      <c r="H39" s="46">
         <v>37</v>
       </c>
       <c r="I39" s="4" t="s">
@@ -8665,7 +8674,7 @@
       <c r="F40" s="4">
         <v>1</v>
       </c>
-      <c r="H40" s="44">
+      <c r="H40" s="46">
         <v>39</v>
       </c>
       <c r="I40" s="4" t="s">
@@ -8691,7 +8700,7 @@
       <c r="F41" s="4">
         <v>8</v>
       </c>
-      <c r="H41" s="44">
+      <c r="H41" s="46">
         <v>40</v>
       </c>
       <c r="I41" s="4" t="s">
@@ -8717,7 +8726,7 @@
       <c r="F42" s="4">
         <v>50000</v>
       </c>
-      <c r="H42" s="44">
+      <c r="H42" s="46">
         <v>40</v>
       </c>
       <c r="I42" s="4" t="s">
@@ -8743,7 +8752,7 @@
       <c r="F43" s="4">
         <v>10</v>
       </c>
-      <c r="H43" s="44">
+      <c r="H43" s="46">
         <v>42</v>
       </c>
       <c r="I43" s="4" t="s">
@@ -8769,7 +8778,7 @@
       <c r="F44" s="4">
         <v>100000</v>
       </c>
-      <c r="H44" s="44">
+      <c r="H44" s="46">
         <v>42</v>
       </c>
       <c r="I44" s="4" t="s">
@@ -8795,7 +8804,7 @@
       <c r="F45" s="4">
         <v>600</v>
       </c>
-      <c r="H45" s="44">
+      <c r="H45" s="46">
         <v>44</v>
       </c>
       <c r="I45" s="4" t="s">
@@ -8821,7 +8830,7 @@
       <c r="F46" s="4">
         <v>1</v>
       </c>
-      <c r="H46" s="44">
+      <c r="H46" s="46">
         <v>44</v>
       </c>
       <c r="I46" s="4" t="s">
@@ -8847,7 +8856,7 @@
       <c r="F47" s="4">
         <v>1</v>
       </c>
-      <c r="H47" s="44">
+      <c r="H47" s="46">
         <v>46</v>
       </c>
       <c r="I47" s="4" t="s">
@@ -8873,7 +8882,7 @@
       <c r="F48" s="4">
         <v>1</v>
       </c>
-      <c r="H48" s="44">
+      <c r="H48" s="46">
         <v>47</v>
       </c>
       <c r="I48" s="4" t="s">
@@ -8899,7 +8908,7 @@
       <c r="F49" s="4">
         <v>1</v>
       </c>
-      <c r="H49" s="44">
+      <c r="H49" s="46">
         <v>48</v>
       </c>
       <c r="I49" s="4" t="s">
@@ -8925,7 +8934,7 @@
       <c r="F50" s="4">
         <v>1</v>
       </c>
-      <c r="H50" s="44">
+      <c r="H50" s="46">
         <v>49</v>
       </c>
       <c r="I50" s="4" t="s">
@@ -8948,11 +8957,11 @@
       <c r="E51" s="4">
         <v>0</v>
       </c>
-      <c r="F51" s="77" t="s">
+      <c r="F51" s="78" t="s">
         <v>222</v>
       </c>
-      <c r="G51" s="49"/>
-      <c r="H51" s="44" t="s">
+      <c r="G51" s="51"/>
+      <c r="H51" s="46" t="s">
         <v>223</v>
       </c>
       <c r="I51" s="4" t="s">
@@ -8978,7 +8987,7 @@
       <c r="F52" s="4">
         <v>8</v>
       </c>
-      <c r="H52" s="44">
+      <c r="H52" s="46">
         <v>60</v>
       </c>
       <c r="I52" s="4" t="s">
@@ -9004,7 +9013,7 @@
       <c r="F53" s="4">
         <v>1</v>
       </c>
-      <c r="H53" s="44">
+      <c r="H53" s="46">
         <v>61</v>
       </c>
       <c r="I53" s="4" t="s">
@@ -9030,7 +9039,7 @@
       <c r="F54" s="4">
         <v>0</v>
       </c>
-      <c r="H54" s="44">
+      <c r="H54" s="46">
         <v>62</v>
       </c>
       <c r="I54" s="4" t="s">
@@ -9056,7 +9065,7 @@
       <c r="F55" s="4">
         <v>0</v>
       </c>
-      <c r="H55" s="44">
+      <c r="H55" s="46">
         <v>63</v>
       </c>
       <c r="I55" s="4" t="s">
@@ -9082,7 +9091,7 @@
       <c r="F56" s="4">
         <v>1</v>
       </c>
-      <c r="H56" s="44">
+      <c r="H56" s="46">
         <v>64</v>
       </c>
       <c r="I56" s="4" t="s">
@@ -9108,7 +9117,7 @@
       <c r="F57" s="4">
         <v>2000000</v>
       </c>
-      <c r="H57" s="44">
+      <c r="H57" s="46">
         <v>65</v>
       </c>
       <c r="I57" s="4" t="s">
@@ -9226,7 +9235,7 @@
       <c r="F62" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="H62" s="44" t="s">
+      <c r="H62" s="46" t="s">
         <v>228</v>
       </c>
     </row>
@@ -9318,7 +9327,7 @@
       <c r="F66" s="4">
         <v>0</v>
       </c>
-      <c r="H66" s="44">
+      <c r="H66" s="46">
         <v>70</v>
       </c>
       <c r="I66" s="4" t="s">
@@ -9344,7 +9353,7 @@
       <c r="F67" s="4">
         <v>0</v>
       </c>
-      <c r="H67" s="44">
+      <c r="H67" s="46">
         <v>71</v>
       </c>
       <c r="I67" s="4" t="s">
@@ -9367,10 +9376,10 @@
       <c r="E68" s="4">
         <v>0</v>
       </c>
-      <c r="F68" s="52">
+      <c r="F68" s="54">
         <v>99999999999</v>
       </c>
-      <c r="G68" s="52"/>
+      <c r="G68" s="54"/>
       <c r="I68" s="10" t="s">
         <v>230</v>
       </c>
@@ -9397,7 +9406,7 @@
       <c r="G69" s="4">
         <v>100000000</v>
       </c>
-      <c r="H69" s="44">
+      <c r="H69" s="46">
         <v>72</v>
       </c>
       <c r="I69" s="4" t="s">
@@ -9424,7 +9433,7 @@
         <v>233</v>
       </c>
       <c r="G70" s="31"/>
-      <c r="H70" s="53" t="s">
+      <c r="H70" s="55" t="s">
         <v>234</v>
       </c>
       <c r="I70" s="38" t="s">
@@ -9451,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="31"/>
-      <c r="H71" s="54">
+      <c r="H71" s="56">
         <v>88</v>
       </c>
       <c r="I71" s="31" t="s">
@@ -9478,7 +9487,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="31"/>
-      <c r="H72" s="54">
+      <c r="H72" s="56">
         <v>89</v>
       </c>
       <c r="I72" s="31" t="s">
@@ -9505,7 +9514,7 @@
         <v>1</v>
       </c>
       <c r="G73" s="31"/>
-      <c r="H73" s="54">
+      <c r="H73" s="56">
         <v>90</v>
       </c>
       <c r="I73" s="31" t="s">
@@ -9532,7 +9541,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="31"/>
-      <c r="H74" s="54">
+      <c r="H74" s="56">
         <v>91</v>
       </c>
       <c r="I74" s="31" t="s">
@@ -9559,7 +9568,7 @@
         <v>10</v>
       </c>
       <c r="G75" s="31"/>
-      <c r="H75" s="54"/>
+      <c r="H75" s="56"/>
       <c r="I75" s="31"/>
     </row>
     <row r="76" s="37" customFormat="1" spans="1:9">
@@ -9582,7 +9591,7 @@
         <v>10</v>
       </c>
       <c r="G76" s="31"/>
-      <c r="H76" s="54"/>
+      <c r="H76" s="56"/>
       <c r="I76" s="31"/>
     </row>
     <row r="77" s="37" customFormat="1" spans="1:9">
@@ -9607,7 +9616,7 @@
       <c r="G77" s="31">
         <v>500000000</v>
       </c>
-      <c r="H77" s="54">
+      <c r="H77" s="56">
         <v>92</v>
       </c>
       <c r="I77" s="31" t="s">
@@ -9636,7 +9645,7 @@
       <c r="G78" s="31">
         <v>2000000000</v>
       </c>
-      <c r="H78" s="54">
+      <c r="H78" s="56">
         <v>93</v>
       </c>
       <c r="I78" s="31" t="s">
@@ -9644,10 +9653,10 @@
       </c>
     </row>
     <row r="79" s="3" customFormat="1" spans="1:9">
-      <c r="A79" s="55">
+      <c r="A79" s="57">
         <v>78</v>
       </c>
-      <c r="B79" s="55">
+      <c r="B79" s="57">
         <v>78</v>
       </c>
       <c r="C79" s="39"/>
@@ -9659,7 +9668,7 @@
         <v>50000</v>
       </c>
       <c r="G79" s="8"/>
-      <c r="H79" s="56">
+      <c r="H79" s="58">
         <v>94</v>
       </c>
       <c r="I79" s="8" t="s">
@@ -9667,10 +9676,10 @@
       </c>
     </row>
     <row r="80" s="3" customFormat="1" spans="1:9">
-      <c r="A80" s="55">
+      <c r="A80" s="57">
         <v>79</v>
       </c>
-      <c r="B80" s="55">
+      <c r="B80" s="57">
         <v>79</v>
       </c>
       <c r="C80" s="39"/>
@@ -9682,7 +9691,7 @@
         <v>500000</v>
       </c>
       <c r="G80" s="8"/>
-      <c r="H80" s="56">
+      <c r="H80" s="58">
         <v>95</v>
       </c>
       <c r="I80" s="8" t="s">
@@ -9690,10 +9699,10 @@
       </c>
     </row>
     <row r="81" s="3" customFormat="1" spans="1:9">
-      <c r="A81" s="55">
+      <c r="A81" s="57">
         <v>80</v>
       </c>
-      <c r="B81" s="55">
+      <c r="B81" s="57">
         <v>80</v>
       </c>
       <c r="C81" s="39"/>
@@ -9705,7 +9714,7 @@
         <v>2000000</v>
       </c>
       <c r="G81" s="8"/>
-      <c r="H81" s="56">
+      <c r="H81" s="58">
         <v>96</v>
       </c>
       <c r="I81" s="39" t="s">
@@ -9734,7 +9743,7 @@
       <c r="G82" s="20">
         <v>500000000</v>
       </c>
-      <c r="H82" s="57">
+      <c r="H82" s="59">
         <v>97</v>
       </c>
       <c r="I82" s="42" t="s">
@@ -9761,7 +9770,7 @@
       <c r="G83" s="21">
         <v>1000000000</v>
       </c>
-      <c r="H83" s="58">
+      <c r="H83" s="60">
         <v>98</v>
       </c>
       <c r="I83" s="21" t="s">
@@ -9788,7 +9797,7 @@
       <c r="G84" s="21">
         <v>5000000000</v>
       </c>
-      <c r="H84" s="58">
+      <c r="H84" s="60">
         <v>99</v>
       </c>
       <c r="I84" s="21" t="s">
@@ -9815,7 +9824,7 @@
       <c r="G85" s="21">
         <v>20000000000</v>
       </c>
-      <c r="H85" s="58">
+      <c r="H85" s="60">
         <v>100</v>
       </c>
       <c r="I85" s="21" t="s">
@@ -9956,7 +9965,7 @@
         <v>50000</v>
       </c>
       <c r="G91" s="8"/>
-      <c r="H91" s="56">
+      <c r="H91" s="58">
         <v>107</v>
       </c>
       <c r="I91" s="8" t="s">
@@ -9979,7 +9988,7 @@
         <v>500000</v>
       </c>
       <c r="G92" s="8"/>
-      <c r="H92" s="56">
+      <c r="H92" s="58">
         <v>108</v>
       </c>
       <c r="I92" s="8" t="s">
@@ -10002,7 +10011,7 @@
         <v>2000000</v>
       </c>
       <c r="G93" s="8"/>
-      <c r="H93" s="56">
+      <c r="H93" s="58">
         <v>109</v>
       </c>
       <c r="I93" s="39" t="s">
@@ -10065,7 +10074,7 @@
       <c r="F96" s="4">
         <v>30000</v>
       </c>
-      <c r="H96" s="44">
+      <c r="H96" s="46">
         <v>120</v>
       </c>
       <c r="I96" s="10" t="s">
@@ -10076,23 +10085,23 @@
       <c r="A97" s="4">
         <v>96</v>
       </c>
-      <c r="B97" s="59">
+      <c r="B97" s="61">
         <v>96</v>
       </c>
-      <c r="C97" s="60"/>
-      <c r="D97" s="60"/>
-      <c r="E97" s="60"/>
-      <c r="F97" s="61" t="s">
+      <c r="C97" s="62"/>
+      <c r="D97" s="62"/>
+      <c r="E97" s="62"/>
+      <c r="F97" s="63" t="s">
         <v>246</v>
       </c>
-      <c r="G97" s="60"/>
-      <c r="H97" s="62" t="s">
+      <c r="G97" s="62"/>
+      <c r="H97" s="64" t="s">
         <v>247</v>
       </c>
-      <c r="I97" s="61" t="s">
+      <c r="I97" s="63" t="s">
         <v>209</v>
       </c>
-      <c r="J97" s="65"/>
+      <c r="J97" s="43"/>
     </row>
     <row r="98" ht="71.25" spans="1:9">
       <c r="A98" s="4">
@@ -10104,10 +10113,10 @@
       <c r="D98" s="4">
         <v>96</v>
       </c>
-      <c r="F98" s="63" t="s">
+      <c r="F98" s="65" t="s">
         <v>248</v>
       </c>
-      <c r="H98" s="63" t="s">
+      <c r="H98" s="65" t="s">
         <v>249</v>
       </c>
       <c r="I98" s="10" t="s">
@@ -10184,11 +10193,11 @@
       <c r="C102" s="20"/>
       <c r="D102" s="20"/>
       <c r="E102" s="20"/>
-      <c r="F102" s="64" t="s">
+      <c r="F102" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="G102" s="64"/>
-      <c r="H102" s="57" t="s">
+      <c r="G102" s="66"/>
+      <c r="H102" s="59" t="s">
         <v>256</v>
       </c>
       <c r="I102" s="20" t="s">
@@ -10205,11 +10214,11 @@
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
       <c r="E103" s="20"/>
-      <c r="F103" s="64" t="s">
+      <c r="F103" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="G103" s="64"/>
-      <c r="H103" s="57" t="s">
+      <c r="G103" s="66"/>
+      <c r="H103" s="59" t="s">
         <v>257</v>
       </c>
       <c r="I103" s="20" t="s">
@@ -10226,18 +10235,18 @@
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
       <c r="E104" s="20"/>
-      <c r="F104" s="64" t="s">
+      <c r="F104" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="G104" s="64"/>
-      <c r="H104" s="57" t="s">
+      <c r="G104" s="66"/>
+      <c r="H104" s="59" t="s">
         <v>258</v>
       </c>
       <c r="I104" s="20" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="105" s="43" customFormat="1" spans="1:9">
+    <row r="105" s="45" customFormat="1" spans="1:9">
       <c r="A105" s="29">
         <v>104</v>
       </c>
@@ -10253,14 +10262,14 @@
         <v>1</v>
       </c>
       <c r="G105" s="21"/>
-      <c r="H105" s="58" t="s">
+      <c r="H105" s="60" t="s">
         <v>259</v>
       </c>
       <c r="I105" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="106" s="43" customFormat="1" spans="1:9">
+    <row r="106" s="45" customFormat="1" spans="1:9">
       <c r="A106" s="29">
         <v>105</v>
       </c>
@@ -10276,14 +10285,14 @@
         <v>1</v>
       </c>
       <c r="G106" s="21"/>
-      <c r="H106" s="58" t="s">
+      <c r="H106" s="60" t="s">
         <v>259</v>
       </c>
       <c r="I106" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="107" s="43" customFormat="1" spans="1:9">
+    <row r="107" s="45" customFormat="1" spans="1:9">
       <c r="A107" s="29">
         <v>106</v>
       </c>
@@ -10299,14 +10308,14 @@
         <v>300000</v>
       </c>
       <c r="G107" s="21"/>
-      <c r="H107" s="58" t="s">
+      <c r="H107" s="60" t="s">
         <v>259</v>
       </c>
       <c r="I107" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="108" s="43" customFormat="1" spans="1:9">
+    <row r="108" s="45" customFormat="1" spans="1:9">
       <c r="A108" s="29">
         <v>107</v>
       </c>
@@ -10322,14 +10331,14 @@
         <v>100</v>
       </c>
       <c r="G108" s="21"/>
-      <c r="H108" s="58" t="s">
+      <c r="H108" s="60" t="s">
         <v>259</v>
       </c>
       <c r="I108" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="109" s="43" customFormat="1" spans="1:9">
+    <row r="109" s="45" customFormat="1" spans="1:9">
       <c r="A109" s="29">
         <v>108</v>
       </c>
@@ -10345,14 +10354,14 @@
         <v>500</v>
       </c>
       <c r="G109" s="21"/>
-      <c r="H109" s="58" t="s">
+      <c r="H109" s="60" t="s">
         <v>259</v>
       </c>
       <c r="I109" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="110" s="43" customFormat="1" spans="1:9">
+    <row r="110" s="45" customFormat="1" spans="1:9">
       <c r="A110" s="29">
         <v>109</v>
       </c>
@@ -10365,17 +10374,17 @@
       </c>
       <c r="E110" s="21"/>
       <c r="F110" s="21">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G110" s="21"/>
-      <c r="H110" s="58" t="s">
+      <c r="H110" s="60" t="s">
         <v>259</v>
       </c>
       <c r="I110" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="111" s="43" customFormat="1" spans="1:9">
+    <row r="111" s="45" customFormat="1" spans="1:9">
       <c r="A111" s="29">
         <v>110</v>
       </c>
@@ -10388,17 +10397,17 @@
       </c>
       <c r="E111" s="21"/>
       <c r="F111" s="21">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G111" s="21"/>
-      <c r="H111" s="58" t="s">
+      <c r="H111" s="60" t="s">
         <v>259</v>
       </c>
       <c r="I111" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="112" s="43" customFormat="1" spans="1:9">
+    <row r="112" s="45" customFormat="1" spans="1:9">
       <c r="A112" s="29">
         <v>111</v>
       </c>
@@ -10414,14 +10423,14 @@
         <v>1</v>
       </c>
       <c r="G112" s="21"/>
-      <c r="H112" s="58" t="s">
+      <c r="H112" s="60" t="s">
         <v>259</v>
       </c>
       <c r="I112" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="113" s="43" customFormat="1" spans="1:9">
+    <row r="113" s="45" customFormat="1" spans="1:9">
       <c r="A113" s="29">
         <v>112</v>
       </c>
@@ -10437,14 +10446,14 @@
         <v>3</v>
       </c>
       <c r="G113" s="21"/>
-      <c r="H113" s="58" t="s">
+      <c r="H113" s="60" t="s">
         <v>260</v>
       </c>
       <c r="I113" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="114" s="43" customFormat="1" spans="1:9">
+    <row r="114" s="45" customFormat="1" spans="1:9">
       <c r="A114" s="29">
         <v>113</v>
       </c>
@@ -10460,14 +10469,14 @@
         <v>1</v>
       </c>
       <c r="G114" s="21"/>
-      <c r="H114" s="58" t="s">
+      <c r="H114" s="60" t="s">
         <v>261</v>
       </c>
       <c r="I114" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="115" s="43" customFormat="1" spans="1:9">
+    <row r="115" s="45" customFormat="1" spans="1:9">
       <c r="A115" s="29">
         <v>114</v>
       </c>
@@ -10483,14 +10492,14 @@
         <v>10</v>
       </c>
       <c r="G115" s="21"/>
-      <c r="H115" s="58" t="s">
+      <c r="H115" s="60" t="s">
         <v>261</v>
       </c>
       <c r="I115" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="116" s="43" customFormat="1" spans="1:9">
+    <row r="116" s="45" customFormat="1" spans="1:9">
       <c r="A116" s="29">
         <v>115</v>
       </c>
@@ -10506,14 +10515,14 @@
         <v>200</v>
       </c>
       <c r="G116" s="21"/>
-      <c r="H116" s="58" t="s">
+      <c r="H116" s="60" t="s">
         <v>261</v>
       </c>
       <c r="I116" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="117" s="43" customFormat="1" spans="1:9">
+    <row r="117" s="45" customFormat="1" spans="1:9">
       <c r="A117" s="29">
         <v>116</v>
       </c>
@@ -10529,14 +10538,14 @@
         <v>300</v>
       </c>
       <c r="G117" s="21"/>
-      <c r="H117" s="58" t="s">
+      <c r="H117" s="60" t="s">
         <v>261</v>
       </c>
       <c r="I117" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="118" s="43" customFormat="1" spans="1:9">
+    <row r="118" s="45" customFormat="1" spans="1:9">
       <c r="A118" s="29">
         <v>117</v>
       </c>
@@ -10552,14 +10561,14 @@
         <v>1000000</v>
       </c>
       <c r="G118" s="21"/>
-      <c r="H118" s="58" t="s">
+      <c r="H118" s="60" t="s">
         <v>261</v>
       </c>
       <c r="I118" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="119" s="43" customFormat="1" spans="1:9">
+    <row r="119" s="45" customFormat="1" spans="1:9">
       <c r="A119" s="29">
         <v>118</v>
       </c>
@@ -10572,10 +10581,10 @@
       </c>
       <c r="E119" s="21"/>
       <c r="F119" s="21">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G119" s="21"/>
-      <c r="H119" s="58" t="s">
+      <c r="H119" s="60" t="s">
         <v>261</v>
       </c>
       <c r="I119" s="21" t="s">
@@ -10592,12 +10601,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F136" sqref="F136"/>
+      <selection pane="bottomLeft" activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12568,7 +12577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:6">
       <c r="A120" s="21">
         <v>119</v>
       </c>
@@ -12581,8 +12590,11 @@
       <c r="D120" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="F120" s="43" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="21">
         <v>120</v>
       </c>
@@ -12590,13 +12602,14 @@
         <v>101</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D121" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="F121" s="43"/>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="21">
         <v>121</v>
       </c>
@@ -12604,13 +12617,14 @@
         <v>101</v>
       </c>
       <c r="C122" s="21" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D122" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="F122" s="43"/>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="21">
         <v>122</v>
       </c>
@@ -12618,13 +12632,14 @@
         <v>101</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D123" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="F123" s="43"/>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="21">
         <v>123</v>
       </c>
@@ -12632,13 +12647,14 @@
         <v>101</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D124" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="F124" s="43"/>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="21">
         <v>124</v>
       </c>
@@ -12646,13 +12662,14 @@
         <v>101</v>
       </c>
       <c r="C125" s="21" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D125" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="F125" s="43"/>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="21">
         <v>125</v>
       </c>
@@ -12660,13 +12677,14 @@
         <v>101</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D126" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="F126" s="43"/>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="21">
         <v>126</v>
       </c>
@@ -12674,13 +12692,14 @@
         <v>101</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D127" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="F127" s="43"/>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="21">
         <v>127</v>
       </c>
@@ -12688,13 +12707,14 @@
         <v>101</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D128" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="F128" s="43"/>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="21">
         <v>128</v>
       </c>
@@ -12702,13 +12722,14 @@
         <v>101</v>
       </c>
       <c r="C129" s="21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D129" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="F129" s="43"/>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="21">
         <v>129</v>
       </c>
@@ -12721,8 +12742,9 @@
       <c r="D130" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="F130" s="43"/>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="21">
         <v>130</v>
       </c>
@@ -12735,8 +12757,9 @@
       <c r="D131" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="F131" s="43"/>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="21">
         <v>131</v>
       </c>
@@ -12744,13 +12767,14 @@
         <v>101</v>
       </c>
       <c r="C132" s="21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D132" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="F132" s="43"/>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="21">
         <v>132</v>
       </c>
@@ -12758,13 +12782,14 @@
         <v>101</v>
       </c>
       <c r="C133" s="21" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D133" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="F133" s="43"/>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="21">
         <v>133</v>
       </c>
@@ -12772,35 +12797,35 @@
         <v>101</v>
       </c>
       <c r="C134" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="D134" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>294</v>
+      </c>
+      <c r="D134" s="29"/>
+      <c r="F134" s="43"/>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="21">
         <v>134</v>
       </c>
       <c r="B135" s="21">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C135" s="21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D135" s="29">
         <v>0</v>
       </c>
+      <c r="F135" s="43"/>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="21">
         <v>135</v>
       </c>
       <c r="B136" s="21">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C136" s="21" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D136" s="29">
         <v>0</v>
@@ -12811,10 +12836,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="21">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C137" s="21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D137" s="29">
         <v>0</v>
@@ -12825,10 +12850,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="21">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D138" s="29">
         <v>0</v>
@@ -12839,10 +12864,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="21">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C139" s="21" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D139" s="29">
         <v>0</v>
@@ -12853,10 +12878,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="21">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C140" s="21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D140" s="29">
         <v>0</v>
@@ -12867,10 +12892,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="21">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C141" s="21" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D141" s="29">
         <v>0</v>
@@ -12881,10 +12906,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="21">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C142" s="21" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D142" s="29">
         <v>0</v>
@@ -12895,10 +12920,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="21">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C143" s="21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D143" s="29">
         <v>0</v>
@@ -12909,10 +12934,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="21">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C144" s="21" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="D144" s="29">
         <v>0</v>
@@ -12923,10 +12948,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="21">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C145" s="21" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="D145" s="29">
         <v>0</v>
@@ -12937,16 +12962,36 @@
         <v>145</v>
       </c>
       <c r="B146" s="21">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C146" s="21" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="D146" s="29">
         <v>0</v>
       </c>
     </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="21">
+        <v>146</v>
+      </c>
+      <c r="B147" s="21">
+        <v>113</v>
+      </c>
+      <c r="C147" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="D147" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3">
+      <c r="C148" s="44"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F120:F135"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300"/>
   <headerFooter/>
@@ -12976,19 +13021,19 @@
   <sheetData>
     <row r="1" ht="66.95" customHeight="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>14</v>
@@ -13002,10 +13047,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E2" s="4">
         <v>2</v>
@@ -13019,7 +13064,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -13036,10 +13081,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E4" s="4">
         <v>2</v>
@@ -13053,7 +13098,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
@@ -13070,10 +13115,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
@@ -13087,7 +13132,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D7" s="4">
         <v>3</v>
@@ -13104,10 +13149,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E8" s="4">
         <v>2</v>
@@ -13121,7 +13166,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D9" s="4">
         <v>4</v>
@@ -13138,10 +13183,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E10" s="4">
         <v>2</v>
@@ -13155,10 +13200,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E11" s="4">
         <v>2</v>
@@ -13172,7 +13217,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
@@ -13189,10 +13234,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
@@ -13206,10 +13251,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
@@ -13223,10 +13268,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E15" s="4">
         <v>2</v>
@@ -13240,7 +13285,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
@@ -13257,10 +13302,10 @@
         <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E17" s="4">
         <v>2</v>
@@ -13274,7 +13319,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
@@ -13291,7 +13336,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -13308,10 +13353,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
@@ -13325,7 +13370,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D21" s="4">
         <v>2</v>
@@ -13342,7 +13387,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -13359,10 +13404,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E23" s="4">
         <v>2</v>
@@ -13376,10 +13421,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E24" s="4">
         <v>2</v>
@@ -13393,7 +13438,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D25" s="4">
         <v>3</v>
@@ -13410,10 +13455,10 @@
         <v>14</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E26" s="4">
         <v>2</v>
@@ -13427,7 +13472,7 @@
         <v>14</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D27" s="4">
         <v>3</v>
@@ -13444,7 +13489,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -13461,10 +13506,10 @@
         <v>15</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E29" s="4">
         <v>2</v>
@@ -13481,7 +13526,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D30" s="4">
         <v>2</v>
@@ -13498,10 +13543,10 @@
         <v>16</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E31" s="4">
         <v>2</v>
@@ -13515,10 +13560,10 @@
         <v>16</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E32" s="4">
         <v>2</v>
@@ -13532,7 +13577,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D33" s="4">
         <v>96</v>
@@ -13549,10 +13594,10 @@
         <v>17</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E34" s="4">
         <v>2</v>
@@ -13566,7 +13611,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
@@ -13583,10 +13628,10 @@
         <v>18</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E36" s="4">
         <v>2</v>
@@ -13600,10 +13645,10 @@
         <v>18</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E37" s="4">
         <v>2</v>
@@ -13617,7 +13662,7 @@
         <v>18</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -13634,10 +13679,10 @@
         <v>19</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E39" s="4">
         <v>2</v>
@@ -13651,10 +13696,10 @@
         <v>19</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E40" s="4">
         <v>2</v>
@@ -13668,7 +13713,7 @@
         <v>19</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D41" s="4">
         <v>3</v>
@@ -13685,10 +13730,10 @@
         <v>20</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E42" s="4">
         <v>2</v>
@@ -13702,10 +13747,10 @@
         <v>20</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E43" s="4">
         <v>2</v>
@@ -13719,7 +13764,7 @@
         <v>20</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D44" s="4">
         <v>96</v>
@@ -13736,10 +13781,10 @@
         <v>21</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E45" s="4">
         <v>2</v>
@@ -13753,10 +13798,10 @@
         <v>21</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E46" s="4">
         <v>2</v>
@@ -13770,7 +13815,7 @@
         <v>21</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -13787,10 +13832,10 @@
         <v>22</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E48" s="4">
         <v>2</v>
@@ -13804,7 +13849,7 @@
         <v>22</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D49" s="4">
         <v>0</v>
@@ -13821,10 +13866,10 @@
         <v>23</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E50" s="4">
         <v>2</v>
@@ -13838,10 +13883,10 @@
         <v>23</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E51" s="4">
         <v>2</v>
@@ -13855,7 +13900,7 @@
         <v>23</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -13872,10 +13917,10 @@
         <v>24</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E53" s="4">
         <v>2</v>
@@ -13889,10 +13934,10 @@
         <v>24</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E54" s="4">
         <v>2</v>
@@ -13906,7 +13951,7 @@
         <v>24</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D55" s="4">
         <v>10</v>
@@ -13923,7 +13968,7 @@
         <v>25</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -13940,7 +13985,7 @@
         <v>26</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D57" s="4">
         <v>2</v>
@@ -13957,7 +14002,7 @@
         <v>27</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D58" s="4">
         <v>74</v>
@@ -13974,7 +14019,7 @@
         <v>28</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D59" s="31">
         <v>1</v>
@@ -13991,7 +14036,7 @@
         <v>29</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D60" s="4">
         <v>2</v>
@@ -14008,7 +14053,7 @@
         <v>30</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D61" s="4">
         <v>3</v>
@@ -14025,10 +14070,10 @@
         <v>31</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E62" s="33">
         <v>2</v>
@@ -14043,10 +14088,10 @@
         <v>32</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E63" s="33">
         <v>2</v>
@@ -14061,10 +14106,10 @@
         <v>32</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D64" s="34" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E64" s="33">
         <v>2</v>
@@ -14079,7 +14124,7 @@
         <v>33</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D65" s="29">
         <v>2</v>
@@ -14096,7 +14141,7 @@
         <v>34</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D66" s="29">
         <v>3</v>
@@ -14113,7 +14158,7 @@
         <v>35</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D67" s="29">
         <v>4</v>
@@ -14130,10 +14175,10 @@
         <v>36</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D68" s="36" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E68" s="4">
         <v>2</v>
@@ -14150,10 +14195,10 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C185" sqref="C185:C186"/>
+      <selection pane="bottomLeft" activeCell="C175" sqref="C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -14172,31 +14217,31 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" ht="38.45" customHeight="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -14207,7 +14252,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -14216,7 +14261,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14227,7 +14272,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D3" s="4">
         <v>8</v>
@@ -14236,7 +14281,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -14247,7 +14292,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D4" s="4">
         <v>30</v>
@@ -14256,10 +14301,10 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -14270,7 +14315,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D5" s="4">
         <v>75</v>
@@ -14288,7 +14333,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D6" s="4">
         <v>200</v>
@@ -14297,7 +14342,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14308,7 +14353,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -14317,7 +14362,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -14328,7 +14373,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D8" s="4">
         <v>30</v>
@@ -14345,7 +14390,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D9" s="4">
         <v>10</v>
@@ -14362,7 +14407,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D10" s="4">
         <v>60</v>
@@ -14379,7 +14424,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D11" s="4">
         <v>30</v>
@@ -14396,7 +14441,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D12" s="4">
         <v>70</v>
@@ -14413,7 +14458,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D13" s="4">
         <v>50</v>
@@ -14430,7 +14475,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D14" s="4">
         <v>100</v>
@@ -14447,7 +14492,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D15" s="4">
         <v>150</v>
@@ -14464,7 +14509,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D16" s="4">
         <v>150</v>
@@ -14481,7 +14526,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D17" s="4">
         <v>20</v>
@@ -14498,7 +14543,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D18" s="4">
         <v>30</v>
@@ -14515,7 +14560,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D19" s="4">
         <v>50</v>
@@ -14532,7 +14577,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D20" s="4">
         <v>20</v>
@@ -14549,7 +14594,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D21" s="4">
         <v>30</v>
@@ -14566,7 +14611,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D22" s="4">
         <v>50</v>
@@ -14583,7 +14628,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D23" s="4">
         <v>50</v>
@@ -14600,7 +14645,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D24" s="4">
         <v>20</v>
@@ -14617,7 +14662,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D25" s="4">
         <v>80</v>
@@ -14634,7 +14679,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D26" s="4">
         <v>50</v>
@@ -14651,7 +14696,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D27" s="4">
         <v>250</v>
@@ -14668,7 +14713,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D28" s="4">
         <v>250</v>
@@ -14685,7 +14730,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D29" s="4">
         <v>666</v>
@@ -14694,7 +14739,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -14705,7 +14750,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D30" s="4">
         <v>50</v>
@@ -14722,7 +14767,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D31" s="4">
         <v>80</v>
@@ -14739,7 +14784,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D32" s="4">
         <v>30</v>
@@ -14748,7 +14793,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -14759,7 +14804,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D33" s="4">
         <v>20</v>
@@ -14768,7 +14813,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -14779,7 +14824,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D34" s="4">
         <v>2000</v>
@@ -14788,7 +14833,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -14799,7 +14844,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D35" s="4">
         <v>1000</v>
@@ -14808,7 +14853,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -14819,7 +14864,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D36" s="4">
         <v>2000</v>
@@ -14828,7 +14873,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -14839,7 +14884,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D37" s="4">
         <v>2000</v>
@@ -14848,7 +14893,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -14859,7 +14904,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -14868,7 +14913,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -14879,7 +14924,7 @@
         <v>39</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D39" s="4">
         <v>1000</v>
@@ -14888,7 +14933,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -14899,7 +14944,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D40" s="4">
         <v>5000</v>
@@ -14908,7 +14953,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -14919,7 +14964,7 @@
         <v>42</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D41" s="4">
         <v>5000</v>
@@ -14928,7 +14973,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -14939,7 +14984,7 @@
         <v>44</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D42" s="4">
         <v>8000</v>
@@ -14948,7 +14993,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -14959,7 +15004,7 @@
         <v>46</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D43" s="4">
         <v>1000</v>
@@ -14968,7 +15013,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -14979,7 +15024,7 @@
         <v>47</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D44" s="4">
         <v>20000</v>
@@ -14988,7 +15033,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -14999,7 +15044,7 @@
         <v>48</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D45" s="4">
         <v>5000</v>
@@ -15008,7 +15053,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -15019,7 +15064,7 @@
         <v>49</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D46" s="4">
         <v>10000</v>
@@ -15028,7 +15073,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -15039,7 +15084,7 @@
         <v>50</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D47" s="4">
         <v>80</v>
@@ -15048,7 +15093,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -15059,7 +15104,7 @@
         <v>51</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D48" s="4">
         <v>180</v>
@@ -15068,7 +15113,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -15079,7 +15124,7 @@
         <v>52</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D49" s="4">
         <v>280</v>
@@ -15088,7 +15133,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -15099,7 +15144,7 @@
         <v>53</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D50" s="4">
         <v>480</v>
@@ -15108,7 +15153,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -15119,7 +15164,7 @@
         <v>54</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D51" s="4">
         <v>1800</v>
@@ -15128,7 +15173,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -15139,7 +15184,7 @@
         <v>60</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D52" s="4">
         <v>500</v>
@@ -15148,7 +15193,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -15159,7 +15204,7 @@
         <v>61</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D53" s="4">
         <v>200000</v>
@@ -15168,7 +15213,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -15179,7 +15224,7 @@
         <v>62</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D54" s="4">
         <v>50000</v>
@@ -15196,7 +15241,7 @@
         <v>63</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -15213,7 +15258,7 @@
         <v>64</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D56" s="4">
         <v>1000</v>
@@ -15222,7 +15267,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -15233,7 +15278,7 @@
         <v>65</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D57" s="4">
         <v>500</v>
@@ -15242,7 +15287,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -15253,7 +15298,7 @@
         <v>66</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D58" s="4">
         <v>50</v>
@@ -15270,7 +15315,7 @@
         <v>67</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D59" s="4">
         <v>200</v>
@@ -15287,7 +15332,7 @@
         <v>68</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D60" s="4">
         <v>300</v>
@@ -15304,7 +15349,7 @@
         <v>69</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D61" s="4">
         <v>1000</v>
@@ -15321,7 +15366,7 @@
         <v>70</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D62" s="4">
         <v>6666</v>
@@ -15338,7 +15383,7 @@
         <v>70</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D63" s="4">
         <v>5</v>
@@ -15355,7 +15400,7 @@
         <v>70</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D64" s="4">
         <v>5</v>
@@ -15372,7 +15417,7 @@
         <v>71</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D65" s="4">
         <v>30000</v>
@@ -15389,7 +15434,7 @@
         <v>71</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D66" s="4">
         <v>5</v>
@@ -15406,7 +15451,7 @@
         <v>71</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D67" s="4">
         <v>5</v>
@@ -15423,7 +15468,7 @@
         <v>72</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D68" s="4">
         <v>1000</v>
@@ -15432,7 +15477,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -15443,7 +15488,7 @@
         <v>73</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D69" s="4">
         <v>1000</v>
@@ -15460,7 +15505,7 @@
         <v>74</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D70" s="4">
         <v>688</v>
@@ -15477,7 +15522,7 @@
         <v>75</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D71" s="4">
         <v>1888</v>
@@ -15494,7 +15539,7 @@
         <v>76</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D72" s="4">
         <v>3888</v>
@@ -15511,7 +15556,7 @@
         <v>77</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D73" s="4">
         <v>8888</v>
@@ -15528,7 +15573,7 @@
         <v>78</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D74" s="4">
         <v>16888</v>
@@ -15545,7 +15590,7 @@
         <v>79</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D75" s="4">
         <v>22888</v>
@@ -15562,7 +15607,7 @@
         <v>80</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D76" s="4">
         <v>36888</v>
@@ -15579,7 +15624,7 @@
         <v>81</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D77" s="4">
         <v>48888</v>
@@ -15596,7 +15641,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D78" s="4">
         <v>88888</v>
@@ -15613,7 +15658,7 @@
         <v>83</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D79" s="4">
         <v>128888</v>
@@ -15630,7 +15675,7 @@
         <v>84</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D80" s="4">
         <v>158888</v>
@@ -15647,7 +15692,7 @@
         <v>85</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D81" s="4">
         <v>188888</v>
@@ -15664,7 +15709,7 @@
         <v>86</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D82" s="4">
         <v>288888</v>
@@ -15681,7 +15726,7 @@
         <v>87</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D83" s="4">
         <v>388888</v>
@@ -15698,7 +15743,7 @@
         <v>88</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D84" s="4">
         <v>5</v>
@@ -15715,7 +15760,7 @@
         <v>89</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D85" s="4">
         <v>5</v>
@@ -15732,7 +15777,7 @@
         <v>90</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D86" s="4">
         <v>10</v>
@@ -15749,7 +15794,7 @@
         <v>91</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D87" s="4">
         <v>10</v>
@@ -15766,7 +15811,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D88" s="4">
         <v>5000</v>
@@ -15783,7 +15828,7 @@
         <v>93</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D89" s="4">
         <v>20000</v>
@@ -15800,7 +15845,7 @@
         <v>94</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D90" s="18">
         <v>100</v>
@@ -15819,7 +15864,7 @@
         <v>94</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D91" s="18">
         <v>1</v>
@@ -15838,7 +15883,7 @@
         <v>95</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D92" s="18">
         <v>100</v>
@@ -15857,7 +15902,7 @@
         <v>95</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D93" s="18">
         <v>40000</v>
@@ -15876,7 +15921,7 @@
         <v>95</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D94" s="18">
         <v>1</v>
@@ -15895,7 +15940,7 @@
         <v>96</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D95" s="18">
         <v>220</v>
@@ -15914,7 +15959,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D96" s="18">
         <v>50000</v>
@@ -15933,7 +15978,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D97" s="18">
         <v>1</v>
@@ -15952,7 +15997,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D98" s="20">
         <v>1000</v>
@@ -15969,7 +16014,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D99" s="21">
         <v>1000</v>
@@ -15986,7 +16031,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D100" s="21">
         <v>5000</v>
@@ -16003,7 +16048,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D101" s="21">
         <v>20000</v>
@@ -16020,7 +16065,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D102" s="4">
         <v>30</v>
@@ -16037,7 +16082,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D103" s="4">
         <v>100</v>
@@ -16054,7 +16099,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D104" s="4">
         <v>500</v>
@@ -16071,7 +16116,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D105" s="4">
         <v>1000</v>
@@ -16088,7 +16133,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D106" s="4">
         <v>3000</v>
@@ -16105,7 +16150,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D107" s="4">
         <v>10000</v>
@@ -16122,7 +16167,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D108" s="18">
         <v>100</v>
@@ -16141,7 +16186,7 @@
         <v>107</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D109" s="18">
         <v>1</v>
@@ -16160,7 +16205,7 @@
         <v>108</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D110" s="18">
         <v>100</v>
@@ -16179,7 +16224,7 @@
         <v>108</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D111" s="18">
         <v>40000</v>
@@ -16198,7 +16243,7 @@
         <v>108</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D112" s="18">
         <v>1</v>
@@ -16217,7 +16262,7 @@
         <v>109</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D113" s="18">
         <v>220</v>
@@ -16236,7 +16281,7 @@
         <v>109</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D114" s="18">
         <v>50000</v>
@@ -16255,7 +16300,7 @@
         <v>109</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D115" s="18">
         <v>1</v>
@@ -16274,7 +16319,7 @@
         <v>110</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D116" s="6">
         <v>10</v>
@@ -16291,7 +16336,7 @@
         <v>110</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D117" s="6">
         <v>1</v>
@@ -16308,7 +16353,7 @@
         <v>111</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D118" s="6">
         <v>10</v>
@@ -16325,7 +16370,7 @@
         <v>111</v>
       </c>
       <c r="C119" s="22" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D119" s="6">
         <v>1</v>
@@ -16342,7 +16387,7 @@
         <v>112</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D120" s="6">
         <v>10</v>
@@ -16359,7 +16404,7 @@
         <v>112</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D121" s="6">
         <v>1</v>
@@ -16376,7 +16421,7 @@
         <v>113</v>
       </c>
       <c r="C122" s="22" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D122" s="6">
         <v>10</v>
@@ -16393,7 +16438,7 @@
         <v>113</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D123" s="6">
         <v>1</v>
@@ -16410,7 +16455,7 @@
         <v>114</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D124" s="6">
         <v>10</v>
@@ -16427,7 +16472,7 @@
         <v>114</v>
       </c>
       <c r="C125" s="22" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D125" s="6">
         <v>1</v>
@@ -16444,7 +16489,7 @@
         <v>115</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D126" s="6">
         <v>50</v>
@@ -16461,7 +16506,7 @@
         <v>115</v>
       </c>
       <c r="C127" s="22" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D127" s="6">
         <v>1</v>
@@ -16478,7 +16523,7 @@
         <v>116</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D128" s="23">
         <v>50000</v>
@@ -16497,7 +16542,7 @@
         <v>116</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D129" s="23">
         <v>100</v>
@@ -16516,7 +16561,7 @@
         <v>117</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D130" s="23">
         <v>5</v>
@@ -16535,7 +16580,7 @@
         <v>117</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D131" s="23">
         <v>200</v>
@@ -16554,7 +16599,7 @@
         <v>118</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D132" s="23">
         <v>10</v>
@@ -16573,7 +16618,7 @@
         <v>118</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D133" s="23">
         <v>100000</v>
@@ -16592,7 +16637,7 @@
         <v>119</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D134" s="23">
         <v>20</v>
@@ -16611,7 +16656,7 @@
         <v>119</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D135" s="23">
         <v>500000</v>
@@ -16630,7 +16675,7 @@
         <v>120</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D136" s="26">
         <v>3</v>
@@ -16647,7 +16692,7 @@
         <v>120</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D137" s="26">
         <v>1</v>
@@ -16664,7 +16709,7 @@
         <v>120</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D138" s="26">
         <v>1</v>
@@ -16681,10 +16726,10 @@
         <v>121</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D139" s="27" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E139" s="4">
         <v>1</v>
@@ -16698,10 +16743,10 @@
         <v>122</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D140" s="27" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E140" s="4">
         <v>1</v>
@@ -16715,10 +16760,10 @@
         <v>123</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D141" s="27" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E141" s="4">
         <v>1</v>
@@ -16732,7 +16777,7 @@
         <v>124</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D142" s="4">
         <v>1000</v>
@@ -16749,7 +16794,7 @@
         <v>125</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D143" s="4">
         <v>30000</v>
@@ -16766,7 +16811,7 @@
         <v>126</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D144" s="4">
         <v>50000</v>
@@ -16783,7 +16828,7 @@
         <v>127</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D145" s="4">
         <v>10</v>
@@ -16800,7 +16845,7 @@
         <v>128</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D146" s="4">
         <v>20</v>
@@ -16817,7 +16862,7 @@
         <v>129</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D147" s="4">
         <v>130</v>
@@ -16834,7 +16879,7 @@
         <v>130</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D148" s="4">
         <v>170</v>
@@ -16851,7 +16896,7 @@
         <v>131</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D149" s="4">
         <v>200</v>
@@ -16868,7 +16913,7 @@
         <v>132</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D150" s="4">
         <v>230</v>
@@ -16885,7 +16930,7 @@
         <v>133</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D151" s="4">
         <v>270</v>
@@ -16902,7 +16947,7 @@
         <v>134</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D152" s="4">
         <v>300</v>
@@ -16919,7 +16964,7 @@
         <v>135</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D153" s="4">
         <v>330</v>
@@ -16936,7 +16981,7 @@
         <v>136</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D154" s="4">
         <v>500</v>
@@ -16953,7 +16998,7 @@
         <v>137</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D155" s="4">
         <v>670</v>
@@ -16970,7 +17015,7 @@
         <v>138</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D156" s="4">
         <v>1100</v>
@@ -16987,7 +17032,7 @@
         <v>139</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D157" s="4">
         <v>1400</v>
@@ -17004,7 +17049,7 @@
         <v>140</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D158" s="4">
         <v>1600</v>
@@ -17021,7 +17066,7 @@
         <v>141</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D159" s="4">
         <v>2200</v>
@@ -17038,7 +17083,7 @@
         <v>142</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D160" s="4">
         <v>3300</v>
@@ -17055,7 +17100,7 @@
         <v>143</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D161" s="4">
         <v>5000</v>
@@ -17072,7 +17117,7 @@
         <v>144</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D162" s="4">
         <v>8000</v>
@@ -17089,7 +17134,7 @@
         <v>145</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D163" s="4">
         <v>12000</v>
@@ -17106,7 +17151,7 @@
         <v>146</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D164" s="4">
         <v>20000</v>
@@ -17123,7 +17168,7 @@
         <v>147</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D165" s="4">
         <v>42000</v>
@@ -17140,7 +17185,7 @@
         <v>148</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D166" s="4">
         <v>62000</v>
@@ -17157,7 +17202,7 @@
         <v>149</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D167" s="4">
         <v>120000</v>
@@ -17174,7 +17219,7 @@
         <v>150</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D168" s="4">
         <v>200000</v>
@@ -17191,7 +17236,7 @@
         <v>151</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D169" s="4">
         <v>350000</v>
@@ -17208,7 +17253,7 @@
         <v>152</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D170" s="4">
         <v>500000</v>
@@ -17225,7 +17270,7 @@
         <v>153</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D171" s="4">
         <v>650000</v>
@@ -17242,7 +17287,7 @@
         <v>154</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D172" s="4">
         <v>800000</v>
@@ -17259,7 +17304,7 @@
         <v>155</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D173" s="4">
         <v>128</v>
@@ -17276,7 +17321,7 @@
         <v>156</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D174" s="4">
         <v>10</v>
@@ -17293,7 +17338,7 @@
         <v>157</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D175" s="20">
         <v>2</v>
@@ -17312,7 +17357,7 @@
         <v>158</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D176" s="20">
         <v>2</v>
@@ -17331,7 +17376,7 @@
         <v>159</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D177" s="20">
         <v>2</v>
@@ -17350,7 +17395,7 @@
         <v>160</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D178" s="20">
         <v>3</v>
@@ -17369,7 +17414,7 @@
         <v>161</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D179" s="20">
         <v>3</v>
@@ -17388,7 +17433,7 @@
         <v>162</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D180" s="20">
         <v>3</v>
@@ -17407,7 +17452,7 @@
         <v>163</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D181" s="20">
         <v>5</v>
@@ -17426,7 +17471,7 @@
         <v>164</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D182" s="20">
         <v>5</v>
@@ -17445,7 +17490,7 @@
         <v>165</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D183" s="20">
         <v>5</v>
@@ -17464,7 +17509,7 @@
         <v>166</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D184" s="20">
         <v>1000</v>
@@ -17483,7 +17528,7 @@
         <v>167</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D185" s="20">
         <v>20000</v>
@@ -17500,7 +17545,7 @@
         <v>168</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D186" s="20">
         <v>50000</v>
@@ -17517,7 +17562,7 @@
         <v>169</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D187" s="20">
         <v>60000</v>
@@ -17534,7 +17579,7 @@
         <v>170</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D188" s="20">
         <v>80000</v>
@@ -17551,7 +17596,7 @@
         <v>171</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D189" s="20">
         <v>1</v>
@@ -17568,7 +17613,7 @@
         <v>172</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D190" s="20">
         <v>120000</v>
@@ -17585,7 +17630,7 @@
         <v>173</v>
       </c>
       <c r="C191" s="20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D191" s="20">
         <v>140000</v>
@@ -17602,7 +17647,7 @@
         <v>174</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D192" s="20">
         <v>160000</v>
@@ -17619,7 +17664,7 @@
         <v>175</v>
       </c>
       <c r="C193" s="20" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D193" s="20">
         <v>1</v>
@@ -17636,7 +17681,7 @@
         <v>176</v>
       </c>
       <c r="C194" s="20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D194" s="20">
         <v>200000</v>
@@ -17653,7 +17698,7 @@
         <v>177</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D195" s="20">
         <v>80000</v>
@@ -17670,7 +17715,7 @@
         <v>178</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D196" s="20">
         <v>200000</v>
@@ -17687,7 +17732,7 @@
         <v>179</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D197" s="20">
         <v>240000</v>
@@ -17704,7 +17749,7 @@
         <v>180</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D198" s="20">
         <v>320000</v>
@@ -17721,7 +17766,7 @@
         <v>181</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D199" s="20">
         <v>1</v>
@@ -17738,7 +17783,7 @@
         <v>182</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D200" s="20">
         <v>480000</v>
@@ -17755,7 +17800,7 @@
         <v>183</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D201" s="20">
         <v>560000</v>
@@ -17772,7 +17817,7 @@
         <v>184</v>
       </c>
       <c r="C202" s="20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D202" s="20">
         <v>640000</v>
@@ -17789,7 +17834,7 @@
         <v>185</v>
       </c>
       <c r="C203" s="20" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D203" s="20">
         <v>1</v>
@@ -17806,7 +17851,7 @@
         <v>186</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D204" s="20">
         <v>800000</v>
@@ -17823,7 +17868,7 @@
         <v>187</v>
       </c>
       <c r="C205" s="21" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D205" s="21">
         <v>30</v>
@@ -17840,7 +17885,7 @@
         <v>188</v>
       </c>
       <c r="C206" s="21" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D206" s="21">
         <v>100</v>
@@ -17857,7 +17902,7 @@
         <v>189</v>
       </c>
       <c r="C207" s="21" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D207" s="21">
         <v>200</v>
@@ -17890,10 +17935,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -17901,7 +17946,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -17909,7 +17954,7 @@
         <v>215</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -17917,55 +17962,55 @@
         <v>206</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B9" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -17994,13 +18039,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -18013,7 +18058,7 @@
         <v>206</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -18028,24 +18073,24 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>416</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -18053,7 +18098,7 @@
         <v>214</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -18064,7 +18109,7 @@
         <v>215</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -18075,10 +18120,10 @@
         <v>278</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:3">
@@ -18090,10 +18135,10 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -18111,18 +18156,18 @@
         <v>221</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:3">
       <c r="A13" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -18130,10 +18175,10 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="1:3">
       <c r="A14" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -18141,10 +18186,10 @@
     </row>
     <row r="15" s="2" customFormat="1" spans="1:3">
       <c r="A15" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -18155,18 +18200,18 @@
         <v>219</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:3">
       <c r="A17" s="8" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C17" s="8">
         <v>1</v>
@@ -18177,21 +18222,21 @@
         <v>231</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:3">
       <c r="A19" s="8" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -18199,7 +18244,7 @@
         <v>224</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -18210,7 +18255,7 @@
         <v>225</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -18218,7 +18263,7 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="1" spans="1:3">
@@ -18226,18 +18271,18 @@
         <v>267</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24" s="3" customFormat="1" spans="1:3">
       <c r="A24" s="8" t="s">
-        <v>439</v>
+        <v>305</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C24" s="8">
         <v>1</v>
@@ -18245,13 +18290,13 @@
     </row>
     <row r="25" s="3" customFormat="1" spans="1:3">
       <c r="A25" s="8" t="s">
-        <v>303</v>
+        <v>442</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -18259,7 +18304,7 @@
         <v>226</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -18270,10 +18315,10 @@
         <v>271</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1" spans="1:3">
@@ -18281,18 +18326,18 @@
         <v>269</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="29" s="3" customFormat="1" spans="1:3">
       <c r="A29" s="8" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C29" s="8">
         <v>1</v>
@@ -18300,10 +18345,10 @@
     </row>
     <row r="30" s="3" customFormat="1" spans="1:3">
       <c r="A30" s="8" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C30" s="8">
         <v>1</v>
@@ -18311,13 +18356,13 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -18325,18 +18370,18 @@
         <v>270</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
@@ -18344,13 +18389,13 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="35" s="3" customFormat="1" spans="1:3">
@@ -18358,18 +18403,18 @@
         <v>268</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="36" s="3" customFormat="1" spans="1:3">
       <c r="A36" s="8" t="s">
-        <v>457</v>
+        <v>299</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C36" s="8">
         <v>1</v>
@@ -18377,21 +18422,21 @@
     </row>
     <row r="37" s="3" customFormat="1" spans="1:3">
       <c r="A37" s="8" t="s">
-        <v>297</v>
+        <v>460</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="38" s="3" customFormat="1" spans="1:3">
       <c r="A38" s="8" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C38" s="8">
         <v>1</v>
@@ -18402,7 +18447,7 @@
         <v>236</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -18413,7 +18458,7 @@
         <v>237</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C40" s="7">
         <v>1</v>
@@ -18424,7 +18469,7 @@
         <v>238</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -18435,18 +18480,18 @@
         <v>232</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" spans="1:16384">
       <c r="A43" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -51223,28 +51268,28 @@
     </row>
     <row r="45" s="1" customFormat="1" spans="1:3">
       <c r="A45" s="6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:3">
       <c r="A46" s="6" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:3">
       <c r="A47" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C47" s="6">
         <v>1</v>
@@ -51252,10 +51297,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="4" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C48" s="4">
         <v>1</v>
@@ -51263,10 +51308,10 @@
     </row>
     <row r="49" s="1" customFormat="1" spans="1:3">
       <c r="A49" s="6" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C49" s="6">
         <v>1</v>
@@ -51274,21 +51319,21 @@
     </row>
     <row r="50" s="1" customFormat="1" spans="1:3">
       <c r="A50" s="6" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="4" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C51" s="4">
         <v>1</v>
@@ -51296,10 +51341,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="4" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
@@ -51307,10 +51352,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
@@ -51318,10 +51363,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="4" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C54" s="4">
         <v>1</v>
@@ -51329,10 +51374,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="4" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C55" s="4">
         <v>1</v>
